--- a/Base-宽表/社员表整理/社员表梳理.xlsx
+++ b/Base-宽表/社员表整理/社员表梳理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,39 +356,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否领取开卡礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员注册信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员消费信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社员标示类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal(20,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>born_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>born_city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>is_get_cardgift</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否领取开卡礼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员注册信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员消费信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社员标示类信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> int(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> decimal(20,2)</t>
+    <r>
+      <t>t_card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表需要导入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist_cityno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +490,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +515,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -585,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,62 +683,65 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1023,18 +1064,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1093,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -1067,12 +1108,12 @@
       <c r="E3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="36"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1085,10 +1126,10 @@
       <c r="E4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="27"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
@@ -1101,12 +1142,12 @@
       <c r="E5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="36"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="13" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>55</v>
@@ -1117,12 +1158,12 @@
       <c r="E6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="13" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
@@ -1133,12 +1174,12 @@
       <c r="E7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="36"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="13" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>57</v>
@@ -1149,10 +1190,10 @@
       <c r="E8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
@@ -1165,11 +1206,11 @@
       <c r="E9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:7" s="18" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>95</v>
+      <c r="A10" s="31" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>12</v>
@@ -1183,12 +1224,12 @@
       <c r="E10" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>55</v>
@@ -1199,24 +1240,24 @@
       <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="13" t="s">
         <v>85</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="36"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="13" t="s">
         <v>14</v>
       </c>
@@ -1226,13 +1267,13 @@
       <c r="D13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="36"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1242,14 +1283,14 @@
       <c r="D14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
-      <c r="A15" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1258,12 +1299,12 @@
       <c r="D15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1272,11 +1313,11 @@
       <c r="D16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1">
-      <c r="A17" s="36"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1286,13 +1327,13 @@
       <c r="D17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="27"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="36"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
@@ -1302,11 +1343,11 @@
       <c r="D18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="36"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
@@ -1319,24 +1360,24 @@
       <c r="E19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" s="22" customFormat="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="23" t="s">
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" s="21" customFormat="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="s">
+      <c r="C20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" s="22" customFormat="1" ht="54">
-      <c r="A21" s="36"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:6" s="21" customFormat="1" ht="54">
+      <c r="A21" s="34"/>
       <c r="B21" s="19" t="s">
         <v>23</v>
       </c>
@@ -1346,11 +1387,11 @@
       <c r="D21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="40.5">
-      <c r="A22" s="36"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
@@ -1363,10 +1404,10 @@
       <c r="E22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="37"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="13" t="s">
         <v>22</v>
       </c>
@@ -1379,128 +1420,128 @@
       <c r="E23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="27"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="35" t="s">
-        <v>96</v>
+      <c r="A24" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>82</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="38"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="38"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="22" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="27"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="38"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="13" t="s">
         <v>87</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="38"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="38"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" s="22" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="23" t="s">
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" s="21" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="13" t="s">
         <v>25</v>
       </c>
@@ -1513,39 +1554,44 @@
       <c r="E32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="4:5">
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="2:5">
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5">
+    <row r="34" spans="2:5">
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="4:5">
+    <row r="35" spans="2:5">
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5">
+    <row r="36" spans="2:5">
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="4:5">
+    <row r="37" spans="2:5">
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="4:5">
+    <row r="38" spans="2:5">
       <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="6" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A24:A30"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
